--- a/Documents/Sprint Planning/Sprint Logs.xlsx
+++ b/Documents/Sprint Planning/Sprint Logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/Sprint Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE748A-8CE0-4192-BA4A-FDA7D93F3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{58AE748A-8CE0-4192-BA4A-FDA7D93F3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A0E1CC-5522-4433-A04F-C362C5978FF2}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="2085" windowWidth="23010" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="-3630" windowWidth="19200" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="268">
   <si>
     <t>Location</t>
   </si>
@@ -938,6 +938,92 @@
   </si>
   <si>
     <t>21:00-06:15</t>
+  </si>
+  <si>
+    <t>Complete  Implementation Chapter
+Create Arduino Watch Graphs
+Get Arduino Watch Schematics</t>
+  </si>
+  <si>
+    <t>20:00-01:00</t>
+  </si>
+  <si>
+    <t>Add Comments to code
+Fix Application Bugs</t>
+  </si>
+  <si>
+    <t>Implement Arduino Screens
+Implement Meal History Screen</t>
+  </si>
+  <si>
+    <t>19:00-03:00</t>
+  </si>
+  <si>
+    <t>Complete Design Chapter</t>
+  </si>
+  <si>
+    <t>Made improvements to code</t>
+  </si>
+  <si>
+    <t>19:00-01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rework and Complete Test sheet
+Complete Evaluation Chapter
+</t>
+  </si>
+  <si>
+    <t>Complete Methodology and Requirements Chapter</t>
+  </si>
+  <si>
+    <t>Arduino Watch
+Application</t>
+  </si>
+  <si>
+    <t>Update Logs, Diagrams and Test Sheet</t>
+  </si>
+  <si>
+    <t>Added Comments to code
+Fixed Application Bugs</t>
+  </si>
+  <si>
+    <t>Implemented Bluetooth connection between Android and Arduino Watch
+Implemented Arduino Screens
+Implemented Meal History Screen</t>
+  </si>
+  <si>
+    <t>Completed Methodology and Requirements Chapter</t>
+  </si>
+  <si>
+    <t>Completed Design Chapter</t>
+  </si>
+  <si>
+    <t>Completed  Implementation Chapter
+Created Arduino Watch Graphs
+Got Arduino Watch Schematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed Test sheet
+Completed Evaluation Chapter
+</t>
+  </si>
+  <si>
+    <t>Completed Conclusion and Further Work Chapter
+Created AFNT.py and README.md
+Created Trello Dump
+Updated Logs</t>
+  </si>
+  <si>
+    <t>Complete Conclusion and Further Work Chapter
+Create AFNT.py and README.md
+Create Trello Dump
+Update Logs</t>
+  </si>
+  <si>
+    <t>Submit Final Rport</t>
+  </si>
+  <si>
+    <t>Submitted Final Report</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1180,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="E76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3658,7 +3744,7 @@
       <c r="E88" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="15" t="s">
         <v>243</v>
       </c>
       <c r="G88" s="23" t="s">
@@ -3682,7 +3768,7 @@
       <c r="E89" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="15" t="s">
         <v>243</v>
       </c>
       <c r="G89" s="23" t="s">
@@ -3694,7 +3780,9 @@
       <c r="A90" s="16">
         <v>45393</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="C90" s="12" t="s">
         <v>15</v>
       </c>
@@ -3704,7 +3792,7 @@
       <c r="E90" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="15" t="s">
         <v>244</v>
       </c>
       <c r="G90" s="23" t="s">
@@ -3713,69 +3801,314 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H94" s="10"/>
+      <c r="A91" s="16">
+        <v>45394</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="16">
+        <v>45395</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="16">
+        <v>45397</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
+        <v>45398</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H95" s="10"/>
+      <c r="A95" s="16">
+        <v>45400</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="16">
+        <v>45401</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="16">
+        <v>45402</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="16">
+        <v>45403</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="16">
+        <v>45404</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="16">
+        <v>45405</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="16">
+        <v>45406</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.3">
@@ -3855,12 +4188,6 @@
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H140" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/Sprint Planning/Sprint Logs.xlsx
+++ b/Documents/Sprint Planning/Sprint Logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/Sprint Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{58AE748A-8CE0-4192-BA4A-FDA7D93F3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A0E1CC-5522-4433-A04F-C362C5978FF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19728FB0-29C7-4486-9F68-C65DC28CD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="-3630" windowWidth="19200" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="269">
   <si>
     <t>Location</t>
   </si>
@@ -1024,6 +1024,10 @@
   </si>
   <si>
     <t>Submitted Final Report</t>
+  </si>
+  <si>
+    <t>Proofread the report
+Make final changes to logs</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,6 +1185,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1488,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4054,11 +4061,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>45406</v>
       </c>
-      <c r="B101" s="19"/>
+      <c r="B101" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="C101" s="12" t="s">
         <v>15</v>
       </c>
@@ -4068,18 +4077,39 @@
       <c r="E101" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="16">
+        <v>45407</v>
+      </c>
+      <c r="B102" s="29">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="G101" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="9" t="s">
+      <c r="G102" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="9" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H103" s="10"/>
